--- a/loaded_influencer_data/thisisalulaa/thisisalulaa_video.xlsx
+++ b/loaded_influencer_data/thisisalulaa/thisisalulaa_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,45 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7478894050888682770</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53500</v>
+        <v>58200</v>
       </c>
       <c r="C2" t="n">
-        <v>4673</v>
+        <v>4801</v>
       </c>
       <c r="D2" t="n">
-        <v>1681</v>
+        <v>1688</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>가볼 스팸은 한 번만 가능합니다. 무작위로 선택되었습니다. 예! 나중에 댓글을 스크롤하는 동안 라이브를 할 수 있습니다😭🫵🏻🔥(팔로우하지 마세요!)</t>
+          <t>gabole spam cuman boleh SEKALI, di pilih random ya! pengumuman aku umumim live sambil scroll komen nanti😭🫵🏻🔥 (ga follow gugur ya!)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>11.87663551401869</v>
+        <v>11.14948453608247</v>
       </c>
       <c r="I2" t="n">
-        <v>8.734579439252336</v>
+        <v>8.249140893470791</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.142056074766355</v>
+        <v>2.900343642611684</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7682242990654206</v>
+        <v>0.7336769759450172</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7357662447248968966</t>
         </is>
@@ -567,36 +567,36 @@
         <v>8900000</v>
       </c>
       <c r="C3" t="n">
-        <v>484500</v>
+        <v>484800</v>
       </c>
       <c r="D3" t="n">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>157500</v>
+        <v>157600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Kulit tetep cakep mulus on point, siapa takut? Lebih baik skincare mahal dan kulit sehat dari pada makeup mahal ygy🤭 #beautytok #fyp #skincare #retinoldaviena</t>
+          <t>Kulit tetep cakep mulus on point, siapa takut? Lebih baik skincare mahal dan kulit sehat dari pada makeup mahal ygy🤭</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.474224719101124</v>
+        <v>5.477573033707865</v>
       </c>
       <c r="I3" t="n">
-        <v>5.443820224719101</v>
+        <v>5.447191011235955</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03040449438202247</v>
+        <v>0.03038202247191011</v>
       </c>
       <c r="L3" t="n">
-        <v>1.769662921348315</v>
+        <v>1.770786516853933</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,45 +610,45 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7420422559549754629</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6100000</v>
+        <v>6200000</v>
       </c>
       <c r="C4" t="n">
-        <v>544900</v>
+        <v>546000</v>
       </c>
       <c r="D4" t="n">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>147400</v>
+        <v>147600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>부자 원영이 되기 위한 하얀 피부 레시피🫠✌🏻💓#fyp #beautytok #bodycare</t>
+          <t>resep kulit putih biar kaya wonyoung🫠✌🏻💓 #fyp #beautytok #bodycare</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.969213114754099</v>
+        <v>8.842322580645162</v>
       </c>
       <c r="I4" t="n">
-        <v>8.932786885245902</v>
+        <v>8.806451612903226</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03642622950819673</v>
+        <v>0.03587096774193548</v>
       </c>
       <c r="L4" t="n">
-        <v>2.416393442622951</v>
+        <v>2.380645161290323</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,1216 +662,1221 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/photo/7489708834760510738</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>33800</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>190</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>#fyp #beautytok #glowup #maskerviral #bleachingmuka #jejuby #whiteningfacemask</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5.002958579881657</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.914201183431953</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08875739644970414</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5621301775147929</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7489673585783508231</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2958</v>
+      </c>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>dulu ga pede bgt pake celpen, tp skrg mas gass😛😛😛🫵🏻🥱❤️‍🔥
+#fyp #beautytok #glowup #whiteningbodycare</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.056795131845842</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.617308992562542</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4394861392832995</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3718728870858689</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7489515501404556562</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D7" t="n">
+        <v>33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>469</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>dulu ga pede bgt pake celpen, tp skrg mas gass😛😛😛🫵🏻🥱❤️‍🔥
+#fyp #beautytok #glowup #whiteningbodycare</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5.752411575562701</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.646302250803858</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1061093247588425</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.508038585209003</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/photo/7489427428096462087</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>469</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>list bodycare ternampol menurut kamu dongg🥱🤪🫶🏻
+#fyp #beautytok #glowup #whiteningbodycare</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4.122119815668203</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.046082949308756</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.07603686635944701</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.080645161290323</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7489426489063066888</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>38300</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3893</v>
+      </c>
+      <c r="D9" t="n">
+        <v>179</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>120</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Langsung di serbu ini mah wkwkkw 😛🫵🏻
+#fyp #beautytok #bodycarewhitening #whiteningbodycare</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10.63185378590078</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.1644908616188</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4673629242819843</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3133159268929504</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7489335697002794258</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9363</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3120</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>826</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Markiview! Mana bodycare yang paling worth it di 2025 ini?? Belom semua but here we goo my fav😋✨💓
+#fyp</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>33.65374345829328</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.32265299583467</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3310904624586137</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.821958773897256</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486829206320516359</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>1582</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>86</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Timakaciiii sis rere와 noera 팀😭❤️‍🔥 그냥 윙윙거렸어요! 놀란 noera basreng이 그렇게 맛있는 것으로 밝혀졌습니다. 😂🙌🏻</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>6.38432364096081</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>5.436156763590392</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.9481668773704173</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.1264222503160556</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7486792298852863240</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>48800</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>2291</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>31</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>477</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>woii가 있는 곳, 이것은 부지런한 보디케어 plsss 때문에 순수합니다.😭🙌🏻❤️‍🔥 #fyp #beautytok #jejuby</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>4.758196721311475</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>4.694672131147541</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.06352459016393443</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>0.9774590163934427</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486766287574584583</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>2576</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>2291</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>31</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>477</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>woii가 있는 곳, 이것은 부지런한 보디케어 plsss 때문에 순수합니다.😭🙌🏻❤️‍🔥 #fyp #beautytok #jejuby</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>90.13975155279503</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>88.9363354037267</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.203416149068323</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>18.51708074534162</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7486697189016734984</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>6435</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>133</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>8</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>9</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>세럼 필링 제주비 에망😭🙌🏻🤌🏻 #fyp #beautytok #jejuby #whiteningbodycare #bodycarepemutih</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>2.191142191142191</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>2.066822066822067</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.1243201243201243</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.1398601398601399</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486496263458934023</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>2680</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>281</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>12</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Bu 소유자 제발 석고 판지 야😭☝🏻🔥 @OWNER DAVIENA SKINCARE #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>11.04477611940299</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>10.48507462686567</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.5597014925373134</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>0.4477611940298508</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486405927139052818</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>2369</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>127</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>아직 thr++nyaaa가 아닙니다.🙌🏻💞😭@OWNER AFTERMYSKIN ♥️ #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>6.247361756015196</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>5.360911777121149</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.8864499788940482</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.1266357112705783</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7486345888156093714</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>40200</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>136</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>18</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>메기 해파리! 해피 이드 리! 빛나는 감사 😋✨💞 #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>0.3830845771144278</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>0.3383084577114428</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.04477611940298507</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.01741293532338309</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486327841148144903</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>3480</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>2383</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>48</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>322</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>바디 케어 노에라 외침 bgttt bu 소유자 🥲🙏🏻😭@Reisha Novandita #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>69.85632183908046</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>68.47701149425288</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.379310344827586</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>9.25287356321839</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7486312886004927752</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>37700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>128</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>19</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>내 발은 차이가 많이 난다😭🫵🏻❤️‍🔥 #fyp #beautytok #whiteningbodycare #jejuby #serumviral</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>0.389920424403183</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>0.3395225464190982</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.05039787798408488</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.01326259946949602</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486086891201301767</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>37200</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>1361</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>267</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>누가 내가 백인이라고 했어? 😔🫵🏻 #fyp #beautytok #whiteningbodycare #maskerviral #bleachingmuka</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>3.709677419354839</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>3.658602150537634</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.0510752688172043</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>0.717741935483871</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7486048807596068104</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>7233</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>1744</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>191</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>ngaruh ya bjir는 km makenya가 드물고 일관되지 않은 경우 영향을 미치지 😭🙌🏻😭🤌🏻❤️‍🔥 #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>24.34674408958938</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>24.11171021706069</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.235033872528688</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>2.640674685469377</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7485937292738104583</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>29000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>333</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>18</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>44</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>pakeeeet🥰: 확실히 다시 nyetok jejuby😭🙌🏻 #fyp #beautytok #whiteningbodycare #bodycare #jejuby #serumviral</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>1.210344827586207</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>1.148275862068965</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.06206896551724139</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.1517241379310345</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7485726783413832967</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>16800</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>1974</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>324</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>하얀 피부를 원하십니까? yuk 다시는 이상한 이상한 옷을 입지 말자, 속임수 없음😭🤣🙌🏻 #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>11.86309523809524</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>11.75</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1130952380952381</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>1.928571428571428</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7485644740885630226</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>32900</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>708</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>16</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>257</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>akhirnya cobain combo ini😭🙏🏻❤️‍🔥 @Reisha Novandita MENYALAAA BU OWNERRR😭🫵🏻🔥 #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>2.200607902735562</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>2.151975683890578</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.0486322188449848</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.7811550151975685</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7485577708785667346</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>512900</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>1232</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>15</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>216</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Asmr Bodycare Night Routine To Achieve This Healthy Skin With Lux🌙✨ #LUXEScapetotheGalaxy</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>0.2431273152661337</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>0.2402027685708715</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.002924546695262234</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.04211347241177617</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7485335228760837383</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>15400</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>3137</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>18</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>#fyp #beautytok #bleachingbadan #jejuby #whiteningbodymask #maskerviral #maskerbadan</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>20.48701298701299</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>20.37012987012987</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1168831168831169</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.1168831168831169</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7485301685812808968</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>15500</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>698</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>80</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>흰색 매끄럽게 빛나는 kek bihunnn😭🤌🏻🫵🏻 #fyp #beautytok #jejuby #serumviral #bodycarepemutih</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>4.670967741935484</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>4.503225806451613</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.167741935483871</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>0.5161290322580645</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7485267360887098632</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>3721</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>514</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>15</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>42</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>쿠션 반짝임?? 좋은 폴😭🙌🏻#fyp #beautytok #maskerviral #bleachingmuka #gloglowingskincare</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>14.21660843859178</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>13.81349099704381</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.403117441547971</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>1.128728836334319</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7485222795404643602</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>513600</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>198</v>
-      </c>
-      <c r="D23" t="n">
-        <v>17</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>반나절 루틴😭☝🏻 #fyp #beautytok #asmr #asmrsounds</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>0.04186137071651091</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.03855140186915888</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.003309968847352025</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.002920560747663552</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7485200721495805202</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>32200</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1418</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>그래서 지금은 흰색이기 때문에 축하하지 않습니까??😔🙌🏻❤️‍🔥🔥🤌🏻 #fyp #beautytok #glowup #bodycarepemutih</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4.472049689440994</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.403726708074534</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.06832298136645962</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1863354037267081</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/photo/7485052755283889415</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>25300</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1379</v>
-      </c>
-      <c r="D25" t="n">
-        <v>51</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>287</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>왜 갑자기 우리 집 앞에 두 개의 상자가 있습니까?😭🙏🏻🙏🏻✨✨✨✨ @OWNER AFTERMYSKIN ♥️ #fyp</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5.652173913043478</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.450592885375494</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.134387351778656</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7484981143406677256</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>19600</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1239</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>203</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>고마워🙏🏻중요한 듀엣 🤗 #fyp #beautytok #glowup #clearskin #glassskin</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6.392857142857143</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.321428571428571</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.035714285714286</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/photo/7484932074307177735</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>510400</v>
-      </c>
-      <c r="C27" t="n">
-        <v>848</v>
-      </c>
-      <c r="D27" t="n">
-        <v>22</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>261</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>내 피부 비누로 죽는 것을 좋아하는 Cungg? !? 비누😭🤌🏻 10% 나이아신아마이드??? 내 피부에🔥🙌🏻🤫 #fyp</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>0.1704545454545454</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.1661442006269593</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.004310344827586207</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.05113636363636364</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7484853194640690450</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>32900</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3358</v>
-      </c>
-      <c r="D28" t="n">
-        <v>23</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>44</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>부지런한 표백 몸 왜냐하면 나중에 이드가 더 빛날 때🤭🔥 #fyp #beautytok #bodycarepemutih #glowup #maskerviral</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10.27659574468085</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.20668693009119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.06990881458966566</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1337386018237082</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7484841482109717767</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>27000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1074</v>
       </c>
       <c r="D29" t="n">
         <v>17</v>
@@ -1880,848 +1885,848 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>반나절 루틴😭☝🏻 #fyp #beautytok #asmr #asmrsounds</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04186137071651091</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03855140186915888</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.003309968847352025</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.002920560747663552</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7485200721495805202</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>32200</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>그래서 지금은 흰색이기 때문에 축하하지 않습니까??😔🙌🏻❤️‍🔥🔥🤌🏻 #fyp #beautytok #glowup #bodycarepemutih</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4.472049689440994</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.403726708074534</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.06832298136645962</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1863354037267081</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/photo/7485052755283889415</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25300</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1379</v>
+      </c>
+      <c r="D31" t="n">
+        <v>51</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>287</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>왜 갑자기 우리 집 앞에 두 개의 상자가 있습니까?😭🙏🏻🙏🏻✨✨✨✨ @OWNER AFTERMYSKIN ♥️ #fyp</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5.652173913043478</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.450592885375494</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2015810276679842</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.134387351778656</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7484981143406677256</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>203</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>고마워🙏🏻중요한 듀엣 🤗 #fyp #beautytok #glowup #clearskin #glassskin</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6.392857142857143</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.321428571428571</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.035714285714286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/photo/7484932074307177735</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>510400</v>
+      </c>
+      <c r="C33" t="n">
+        <v>848</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>261</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>내 피부 비누로 죽는 것을 좋아하는 Cungg? !? 비누😭🤌🏻 10% 나이아신아마이드??? 내 피부에🔥🙌🏻🤫 #fyp</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1704545454545454</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1661442006269593</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.004310344827586207</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.05113636363636364</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7484853194640690450</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3358</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>44</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>부지런한 표백 몸 왜냐하면 나중에 이드가 더 빛날 때🤭🔥 #fyp #beautytok #bodycarepemutih #glowup #maskerviral</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10.27659574468085</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.20668693009119</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.06990881458966566</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1337386018237082</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7484841482109717767</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>27000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1074</v>
+      </c>
+      <c r="D35" t="n">
+        <v>17</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>153</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>"바이스"에 아몬드 오일이 포함되어 있기 때문에 한 번 냐톡을 직접 똑바로 생각하십니까?🫣😋 L  #Jetzt</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>4.04074074074074</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>3.977777777777778</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.06296296296296296</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.5666666666666667</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484599269832379666</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>7789</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>1892</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>230</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Sabun cuci muka itu penting loh! Kalo kalian sabun cuci muka udah sesuai / asal pilih aja? 👀✨ #ClearMeDariJerawat #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>24.48324560277314</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>24.2906663243035</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1925792784696367</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>2.952882269867762</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7484520226621558034</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>41300</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>226</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>25</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>21</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Eid보다 먼저 불이 켜집니까? 🤫🙌🏻❤️‍🔥🤌🏻 #fyp #beautytok #bodycarepemutih #glowup #maskerviral #jejuby</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>0.6077481840193705</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>0.5472154963680387</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.06053268765133172</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.05084745762711865</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484483252644826376</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>511200</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>2638</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>19</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>359</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>특허를 주입하는 곳🤫😋 #fyp #beautytok #bodycarepemutih #glowup</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>0.5197574334898278</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>0.5160406885758998</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.003716744913928013</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>0.07022691705790297</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7484455232471043336</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>517000</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>2132</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>7</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>mana ada efek, rill ni putihh😭🫵🏻❤️‍🔥 #fyp #beautytok #glowup #bodycarepemutih #bleachingbadan #maskerviral #jejuby</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>0.4154738878143134</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>0.4123791102514506</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.00309477756286267</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.001353965183752418</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484254341126393106</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>282500</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>2145</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>13</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>11</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>얼굴이 정말 빛나고 있나요? 네 동지😋🤫🤌🏻 #fyp #beautytok #glowup #whiteningfacemask #bleachingmuka</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>0.7638938053097345</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>0.7592920353982301</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.004601769911504424</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.003893805309734513</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484167897263213842</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>27500</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>3545</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>24</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>454</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>부드러운 얼굴 풀 레이 👀🙌🏻 반짝이는 gloglowingkuuu😋🔥 #fyp #beautytok #maskerviral #bleachingmuka</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>12.97818181818182</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>12.89090909090909</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.08727272727272728</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>1.650909090909091</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484134427510017288</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>59400</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>998</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>392</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>뭐! !? 마카리조 스킨케어 출시? !? 👀✨예!!!! 또 너무 좋아요! 🙌🏻😱 #rekomendasimoisturizer #moisturizer #fyp</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>1.708754208754209</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>1.68013468013468</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.02861952861952862</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.6599326599326599</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484127743077158162</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>3148</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>3150</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>31</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>338</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>빨리 타오르고 있어🥲🫵🏻‼️ #fyp #beautytok #aftermyskin</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>101.0482846251588</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>100.0635324015248</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.9847522236340533</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>10.73697585768742</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7484069143403138312</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>609700</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>109</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>14</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>너무 밝은 bgt 안티 칙칙한 모달 톤 업 크림 전용 woiii😭🫵🏻 #fyp #beautytok</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>0.02050188617352797</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>0.01787764474331639</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.002624241430211579</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.002296211251435132</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/video/7483906215647530248</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>39800</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>12300</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>69</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>1747</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>표백 얼굴 넘버 원 조스🥲🫵🏻 #fyp #beautytok #glowup #whiteningfacemask #bleachingmuka #jejuby</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>31.07788944723618</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>30.90452261306533</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1733668341708543</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>4.389447236180905</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@thisisalulaa/photo/7483819420775648520</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>33500</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>960</v>
-      </c>
-      <c r="D40" t="n">
-        <v>19</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>118</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Say no more to kulit kering! Di bulan puasa kaya gini tuh harus extra care sama kulit! 😱 @watchmebareit #WatchMeBareIt #StrongBarrierIn3Days #KoreanFormula</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2.922388059701492</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.865671641791045</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.05671641791044776</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.3522388059701492</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483788826188500242</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C41" t="n">
-        <v>960</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>118</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>건조한 피부에 더 이상 말하지 마세요! 금식의 달에는 피부를 각별히 관리해야 합니다! 😱 @watchmebareit</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2.175555555555555</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.133333333333333</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.04222222222222222</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.2622222222222222</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483739130329943304</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>25200</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5942</v>
-      </c>
-      <c r="D42" t="n">
-        <v>45</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>617</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>바디 케어 디하티😭🫶🏻 #fyp #beautytok #bodycarepemutih</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>23.75793650793651</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23.57936507936508</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.448412698412698</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483719381743127826</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>18600</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1078</v>
-      </c>
-      <c r="D43" t="n">
-        <v>15</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>86</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>야. ?? 예! 얼굴만 돌보지 말고 우리도 가자! 👀✨ #fyp #beautytok #glowup #axillarycream</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5.876344086021505</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.795698924731183</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.4623655913978494</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483444558395657480</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>525800</v>
-      </c>
-      <c r="C44" t="n">
-        <v>528</v>
-      </c>
-      <c r="D44" t="n">
-        <v>17</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>115</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>금식의 이번 달 피부도 건조하고 칙칙해 지나요?? 이런 여러분! 이것이 해결책입니다.👀</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>0.103651578546976</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.100418410041841</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.003233168505135032</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.02187143400532522</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483428152866245906</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>40400</v>
-      </c>
-      <c r="C45" t="n">
-        <v>524</v>
-      </c>
-      <c r="D45" t="n">
-        <v>17</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>213</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>그냥 데이 크림을 사용하세요. 하지만 그것은 시세타 블링 샤흐리니가 될 수 있습니다.🫣✨ #fyp #beautytok #glowup</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1.339108910891089</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.297029702970297</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.04207920792079208</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.5272277227722773</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483387314891279624</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>32200</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1371</v>
       </c>
       <c r="D46" t="n">
         <v>19</v>
@@ -2730,234 +2735,284 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>백인이지만 게으른 보디 케어를 원하십니까? 그냥 꿈을 꿔 dehhh😱🫵🏻 #fyp #beautytok #whiteningbodycare</t>
+          <t>Say no more to kulit kering! Di bulan puasa kaya gini tuh harus extra care sama kulit! 😱 @watchmebareit #WatchMeBareIt #StrongBarrierIn3Days #KoreanFormula</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.316770186335404</v>
+        <v>2.922388059701492</v>
       </c>
       <c r="I46" t="n">
-        <v>4.257763975155279</v>
+        <v>2.865671641791045</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.05900621118012422</v>
+        <v>0.05671641791044776</v>
       </c>
       <c r="L46" t="n">
-        <v>0.124223602484472</v>
+        <v>0.3522388059701492</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/photo/7483352116195560711</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7483788826188500242</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>528700</v>
+        <v>45000</v>
       </c>
       <c r="C47" t="n">
-        <v>1188</v>
+        <v>960</v>
       </c>
       <c r="D47" t="n">
+        <v>19</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>118</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>건조한 피부에 더 이상 말하지 마세요! 금식의 달에는 피부를 각별히 관리해야 합니다! 😱 @watchmebareit</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2.175555555555555</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.04222222222222222</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.2622222222222222</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7483739130329943304</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>25200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5942</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>617</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>바디 케어 디하티😭🫶🏻 #fyp #beautytok #bodycarepemutih</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>23.75793650793651</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23.57936507936508</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.448412698412698</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7483719381743127826</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>18600</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D49" t="n">
         <v>15</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>113</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>지성 피부를 위한 자외선 차단제? 나쁜 자외선 차단제를 고르지 마세요! 👀 #YOUSunscreen #sunscreenviral #fyp</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>0.2275392472101381</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.2247020994893134</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.002837147720824664</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.02137317949687914</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483118426207178002</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>13700</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2368</v>
-      </c>
-      <c r="D48" t="n">
-        <v>18</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>463</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Cmn 사용 선크림 루시엔 WOIIIII BGsss 매우 atttttt😭🙏🏻</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>17.41605839416058</v>
-      </c>
-      <c r="I48" t="n">
-        <v>17.28467153284672</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.1313868613138686</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.37956204379562</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/photo/7483066590129425671</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>514000</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2539</v>
-      </c>
-      <c r="D49" t="n">
-        <v>55</v>
-      </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>#fyp #beautytok #glowup #jejuby #maskerviral #whiteningfacemask #bleachingmuka</t>
+          <t>야. ?? 예! 얼굴만 돌보지 말고 우리도 가자! 👀✨ #fyp #beautytok #glowup #axillarycream</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.5046692607003891</v>
+        <v>5.876344086021505</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4939688715953307</v>
+        <v>5.795698924731183</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01070038910505837</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04494163424124514</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@thisisalulaa/video/7483013593076649224</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7483444558395657480</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>46700</v>
+        <v>525800</v>
       </c>
       <c r="C50" t="n">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>보디케어라면 쓸모가 없지만 정오에는 바디 선크림을 사용하지 않습니다.😭🙏🏻 #fyp #beautytok #bodycarepemutih</t>
+          <t>금식의 이번 달 피부도 건조하고 칙칙해 지나요?? 이런 여러분! 이것이 해결책입니다.👀</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.186295503211992</v>
+        <v>0.103651578546976</v>
       </c>
       <c r="I50" t="n">
-        <v>1.137044967880086</v>
+        <v>0.100418410041841</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.04925053533190578</v>
+        <v>0.003233168505135032</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1670235546038544</v>
+        <v>0.02187143400532522</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@thisisalulaa/video/7483428152866245906</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>40400</v>
+      </c>
+      <c r="C51" t="n">
+        <v>524</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>213</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>그냥 데이 크림을 사용하세요. 하지만 그것은 시세타 블링 샤흐리니가 될 수 있습니다.🫣✨ #fyp #beautytok #glowup</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1.339108910891089</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.297029702970297</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.04207920792079208</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.5272277227722773</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
